--- a/data/raw/prj2021.xlsx
+++ b/data/raw/prj2021.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vito.tranquillo\Desktop\Git Projects\COGEPERF\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB8FFC9-A4E7-484F-A699-27437EA41D1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9731E002-70BB-45AE-9754-843A3889BADD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRJ" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PRJ!$A$1:$S$1423</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
@@ -11832,12 +11835,13 @@
   <dimension ref="A1:S1423"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G963" sqref="G963"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="13.85546875" customWidth="1"/>
+    <col min="1" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
     <col min="6" max="6" width="33.5703125" customWidth="1"/>
     <col min="7" max="7" width="21.42578125" customWidth="1"/>
     <col min="8" max="8" width="23.5703125" customWidth="1"/>
@@ -11925,7 +11929,7 @@
         <v>22</v>
       </c>
       <c r="G2" s="5">
-        <v>0</v>
+        <v>240184</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>23</v>
@@ -11980,8 +11984,8 @@
       <c r="F3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="5">
-        <v>0</v>
+      <c r="G3">
+        <v>291444</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>30</v>
@@ -12036,8 +12040,8 @@
       <c r="F4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="5">
-        <v>0</v>
+      <c r="G4">
+        <v>291444</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>30</v>
@@ -12092,8 +12096,8 @@
       <c r="F5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="5">
-        <v>0</v>
+      <c r="G5">
+        <v>291444</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>30</v>
@@ -12148,8 +12152,8 @@
       <c r="F6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="5">
-        <v>0</v>
+      <c r="G6">
+        <v>291444</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>30</v>
@@ -12185,7 +12189,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="240" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>41</v>
       </c>
@@ -12205,7 +12209,7 @@
         <v>29</v>
       </c>
       <c r="G7" s="5">
-        <v>0</v>
+        <v>237670</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>44</v>
@@ -12260,6 +12264,9 @@
       <c r="F8" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="G8">
+        <v>292049</v>
+      </c>
       <c r="H8" s="2" t="s">
         <v>49</v>
       </c>
@@ -12369,6 +12376,9 @@
       <c r="F10" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="G10">
+        <v>292049</v>
+      </c>
       <c r="H10" s="2" t="s">
         <v>49</v>
       </c>
@@ -12422,6 +12432,9 @@
       <c r="F11" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="G11">
+        <v>292049</v>
+      </c>
       <c r="H11" s="2" t="s">
         <v>49</v>
       </c>
@@ -12811,6 +12824,9 @@
       <c r="F18" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="G18">
+        <v>291769</v>
+      </c>
       <c r="H18" s="2" t="s">
         <v>89</v>
       </c>
@@ -13592,6 +13608,9 @@
       <c r="F32" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="G32">
+        <v>238013</v>
+      </c>
       <c r="H32" s="2" t="s">
         <v>159</v>
       </c>
@@ -13646,7 +13665,7 @@
         <v>22</v>
       </c>
       <c r="G33" s="5">
-        <v>0</v>
+        <v>238340</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>40</v>
@@ -13915,7 +13934,7 @@
         <v>1052000</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="330" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>188</v>
       </c>
@@ -13935,7 +13954,7 @@
         <v>22</v>
       </c>
       <c r="G38" s="5">
-        <v>0</v>
+        <v>238467</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>191</v>
@@ -16021,7 +16040,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="150" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>306</v>
       </c>
@@ -16039,6 +16058,9 @@
       </c>
       <c r="F74" s="2" t="s">
         <v>48</v>
+      </c>
+      <c r="G74" s="5">
+        <v>238935</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>309</v>
@@ -46467,7 +46489,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="600" spans="1:19" ht="120" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A600" s="2" t="s">
         <v>1755</v>
       </c>
@@ -46486,6 +46508,9 @@
       <c r="F600" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="G600" s="5">
+        <v>291640</v>
+      </c>
       <c r="H600" s="2" t="s">
         <v>631</v>
       </c>
@@ -46520,7 +46545,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="601" spans="1:19" ht="120" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A601" s="2" t="s">
         <v>1755</v>
       </c>
@@ -46539,6 +46564,9 @@
       <c r="F601" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="G601" s="5">
+        <v>291640</v>
+      </c>
       <c r="H601" s="2" t="s">
         <v>631</v>
       </c>
@@ -46573,7 +46601,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="602" spans="1:19" ht="120" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A602" s="2" t="s">
         <v>1755</v>
       </c>
@@ -46591,6 +46619,9 @@
       </c>
       <c r="F602" s="2" t="s">
         <v>48</v>
+      </c>
+      <c r="G602" s="5">
+        <v>291640</v>
       </c>
       <c r="H602" s="2" t="s">
         <v>631</v>
@@ -47334,7 +47365,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="615" spans="1:19" ht="180" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:19" ht="120" x14ac:dyDescent="0.25">
       <c r="A615" s="2" t="s">
         <v>1771</v>
       </c>
@@ -47352,6 +47383,9 @@
       </c>
       <c r="F615" s="2" t="s">
         <v>48</v>
+      </c>
+      <c r="G615" s="5">
+        <v>291866</v>
       </c>
       <c r="H615" s="2" t="s">
         <v>185</v>
